--- a/ProductsByAgencies.xlsx
+++ b/ProductsByAgencies.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dcsinfosys.com\DCS\Users\SSubramanian\Documents\eDX Courses\MITx+15.071x_3\Kaggle Competition\Grupo Bimbo Inventory Demand\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kag-bim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ProductsByAgencies!$A$1:$D$3864</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$D$2760</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +500,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -540,8 +543,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -549,8 +553,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -578,6 +583,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -594,16 +600,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -617,7 +614,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -652,18 +649,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -693,7 +678,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2648310265564628E-2"/>
+          <c:y val="4.7619047619047616E-2"/>
+          <c:w val="0.89457736261228216"/>
+          <c:h val="0.68637011282680571"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -727,7 +722,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>122.82758620689656</c:v>
@@ -826,7 +821,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="6">
                   <c:v>123.3659420289855</c:v>
@@ -1106,7 +1101,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1277,7 +1272,7 @@
             <c:numRef>
               <c:f>Forecast_Comparison!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>140951.55898366607</c:v>
@@ -1376,7 +1371,7 @@
             <c:numRef>
               <c:f>Forecast_Comparison!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="6">
                   <c:v>135968.20652173914</c:v>
@@ -1464,15 +1459,15 @@
             <c:numRef>
               <c:f>Forecast_Comparison!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>135968.20652173914</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>127955.87947570843</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>126834.67490134726</c:v>
                 </c:pt>
               </c:numCache>
@@ -1552,15 +1547,15 @@
             <c:numRef>
               <c:f>Forecast_Comparison!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>135968.20652173914</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>138234.91809510891</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>137113.75977631746</c:v>
                 </c:pt>
               </c:numCache>
@@ -1639,6 +1634,7 @@
         <c:axId val="551857760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="125000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1656,7 +1652,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2156,6 +2152,7 @@
         <c:axId val="687174952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="125000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2330,46 +2327,8 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="7"/>
-              <c:pt idx="0">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$B$2:$B$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2427,13 +2386,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$A$2:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2464,13 +2416,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$C$2:$C$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2523,13 +2468,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$A$2:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2560,13 +2498,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$D$2:$D$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2619,13 +2550,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$A$2:$A$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2656,13 +2580,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet5!$E$2:$E$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Sheet5!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2705,6 +2622,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6181,15 +6099,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:colOff>1390650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6215,16 +6133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6245,16 +6163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6352,11 +6270,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Week" dataDxfId="22"/>
-    <tableColumn id="2" name="numproducts" dataDxfId="21"/>
-    <tableColumn id="3" name="Forecast(numproducts)" dataDxfId="20"/>
-    <tableColumn id="4" name="Lower Confidence Bound(numproducts)" dataDxfId="19"/>
-    <tableColumn id="5" name="Upper Confidence Bound(numproducts)" dataDxfId="18"/>
+    <tableColumn id="1" name="Week" dataDxfId="5"/>
+    <tableColumn id="2" name="numproducts" dataDxfId="4"/>
+    <tableColumn id="3" name="Forecast(numproducts)" dataDxfId="2"/>
+    <tableColumn id="4" name="Lower Confidence Bound(numproducts)" dataDxfId="3"/>
+    <tableColumn id="5" name="Upper Confidence Bound(numproducts)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6366,11 +6284,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Week" dataDxfId="13"/>
-    <tableColumn id="2" name="totaldemand" dataDxfId="12"/>
-    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="11"/>
-    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="10"/>
-    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="9"/>
+    <tableColumn id="1" name="Week" dataDxfId="1"/>
+    <tableColumn id="2" name="totaldemand" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="Forecast(totaldemand)" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6380,15 +6298,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A21:E28" totalsRowShown="0">
   <autoFilter ref="A21:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Week" dataDxfId="8"/>
-    <tableColumn id="2" name="totaldemand"/>
-    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="7">
+    <tableColumn id="1" name="Week" dataDxfId="0"/>
+    <tableColumn id="2" name="totaldemand" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="Forecast(totaldemand)" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A22,$B$2:$B$6,$A$2:$A$6,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="6">
+    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataCellStyle="Comma">
       <calculatedColumnFormula>C22-_xlfn.FORECAST.ETS.CONFINT(A22,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="5">
+    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataCellStyle="Comma">
       <calculatedColumnFormula>C22+_xlfn.FORECAST.ETS.CONFINT(A22,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6400,15 +6318,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E8" totalsRowShown="0">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Week" dataDxfId="17"/>
+    <tableColumn id="1" name="Week" dataDxfId="14"/>
     <tableColumn id="2" name="totaldemand"/>
-    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="16">
+    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="13">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$6,$A$2:$A$6,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="15">
+    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="12">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="14">
+    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="11">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6420,11 +6338,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:E8" totalsRowShown="0">
   <autoFilter ref="A1:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Week" dataDxfId="4"/>
-    <tableColumn id="2" name="totaldemand" dataDxfId="3"/>
-    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="2"/>
-    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="1"/>
-    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="0"/>
+    <tableColumn id="1" name="Week" dataDxfId="10"/>
+    <tableColumn id="2" name="totaldemand" dataDxfId="9"/>
+    <tableColumn id="3" name="Forecast(totaldemand)" dataDxfId="8"/>
+    <tableColumn id="4" name="Lower Confidence Bound(totaldemand)" dataDxfId="7"/>
+    <tableColumn id="5" name="Upper Confidence Bound(totaldemand)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6730,13 +6648,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
@@ -6745,10 +6663,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -6762,7 +6680,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>122.82758620689656</v>
       </c>
     </row>
@@ -6770,7 +6688,7 @@
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>123.41485507246377</v>
       </c>
     </row>
@@ -6778,7 +6696,7 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>122.42934782608695</v>
       </c>
     </row>
@@ -6786,7 +6704,7 @@
       <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>122.7445652173913</v>
       </c>
     </row>
@@ -6794,7 +6712,7 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>125.2463768115942</v>
       </c>
     </row>
@@ -6802,7 +6720,7 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>124.59057971014492</v>
       </c>
     </row>
@@ -6810,10 +6728,10 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>123.3659420289855</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>123.3659420289855</v>
       </c>
       <c r="D8" s="2">
@@ -6827,7 +6745,7 @@
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <f>_xlfn.FORECAST.ETS(A9,$B$2:$B$8,$A$2:$A$8,1,1)</f>
         <v>124.52192839736713</v>
       </c>
@@ -6844,7 +6762,7 @@
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <f>_xlfn.FORECAST.ETS(A10,$B$2:$B$8,$A$2:$A$8,1,1)</f>
         <v>124.76394152784377</v>
       </c>
@@ -6870,33 +6788,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6904,7 +6822,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="7">
         <v>140951.55898366607</v>
       </c>
     </row>
@@ -6912,7 +6830,7 @@
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>144237.07608695651</v>
       </c>
     </row>
@@ -6920,7 +6838,7 @@
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>140598.98007246378</v>
       </c>
     </row>
@@ -6928,7 +6846,7 @@
       <c r="A5" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>133788.27717391305</v>
       </c>
     </row>
@@ -6936,7 +6854,7 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>138762.70652173914</v>
       </c>
     </row>
@@ -6944,7 +6862,7 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>136820.84239130435</v>
       </c>
     </row>
@@ -6952,16 +6870,16 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>135968.20652173914</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>135968.20652173914</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>135968.20652173914</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>135968.20652173914</v>
       </c>
     </row>
@@ -6969,15 +6887,15 @@
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <f>_xlfn.FORECAST.ETS(A9,$B$2:$B$8,$A$2:$A$8,1,1)</f>
         <v>133095.39878540867</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <f>C9-_xlfn.FORECAST.ETS.CONFINT(A9,$B$2:$B$8,$A$2:$A$8,0.95,1,1)</f>
         <v>127955.87947570843</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <f>C9+_xlfn.FORECAST.ETS.CONFINT(A9,$B$2:$B$8,$A$2:$A$8,0.95,1,1)</f>
         <v>138234.91809510891</v>
       </c>
@@ -6986,15 +6904,15 @@
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <f>_xlfn.FORECAST.ETS(A10,$B$2:$B$8,$A$2:$A$8,1,1)</f>
         <v>131974.21733883236</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <f>C10-_xlfn.FORECAST.ETS.CONFINT(A10,$B$2:$B$8,$A$2:$A$8,0.95,1,1)</f>
         <v>126834.67490134726</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <f>C10+_xlfn.FORECAST.ETS.CONFINT(A10,$B$2:$B$8,$A$2:$A$8,0.95,1,1)</f>
         <v>137113.75977631746</v>
       </c>
@@ -7003,16 +6921,16 @@
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7020,7 +6938,7 @@
       <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>140951.55898366607</v>
       </c>
     </row>
@@ -7028,7 +6946,7 @@
       <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="7">
         <v>144237.07608695651</v>
       </c>
     </row>
@@ -7036,7 +6954,7 @@
       <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>140598.98007246378</v>
       </c>
     </row>
@@ -7044,7 +6962,7 @@
       <c r="A25" s="3">
         <v>6</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>133788.27717391305</v>
       </c>
     </row>
@@ -7052,16 +6970,16 @@
       <c r="A26" s="3">
         <v>7</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>138762.70652173914</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>138762.70652173914</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>138762.70652173914</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>138762.70652173914</v>
       </c>
     </row>
@@ -7069,15 +6987,15 @@
       <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <f>_xlfn.FORECAST.ETS(A27,$B$2:$B$6,$A$2:$A$6,1,1)</f>
         <v>131329.02577776459</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="7">
         <f>C27-_xlfn.FORECAST.ETS.CONFINT(A27,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
         <v>122348.14738890217</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="7">
         <f>C27+_xlfn.FORECAST.ETS.CONFINT(A27,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
         <v>140309.90416662701</v>
       </c>
@@ -7086,15 +7004,15 @@
       <c r="A28" s="3">
         <v>9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <f>_xlfn.FORECAST.ETS(A28,$B$2:$B$6,$A$2:$A$6,1,1)</f>
         <v>126316.5832841368</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="7">
         <f>C28-_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
         <v>117263.5683107431</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="7">
         <f>C28+_xlfn.FORECAST.ETS.CONFINT(A28,$B$2:$B$6,$A$2:$A$6,0.95,1,1)</f>
         <v>135369.59825753051</v>
       </c>
@@ -7113,7 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
